--- a/biology/Botanique/Triumfetta/Triumfetta.xlsx
+++ b/biology/Botanique/Triumfetta/Triumfetta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triumfetta est un genre de plantes de la famille des Malvaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (1 août 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (1 août 2017) :
 Triumfetta annua L.
 Triumfetta bogotensis DC.
 Triumfetta cana Blume
@@ -553,7 +569,7 @@
 Triumfetta semitriloba Jacq.
 Triumfetta tomentosa Bojer
 Triumfetta velutina Vahl
-Selon Catalogue of Life                                   (1 août 2017)[3] :
+Selon Catalogue of Life                                   (1 août 2017) :
 Triumfetta abutiloides A. St.-Hil.
 Triumfetta acahuizotlanensis Gonz.-Martínez, J.Jiménez Ram. &amp; Rios-Carr.
 Triumfetta acracantha Hochr.
@@ -728,7 +744,7 @@
 Triumfetta welwitschii Mast.
 Triumfetta winneckeana F.Müll.
 Triumfetta youngii Exell &amp; Mendonca
-Selon GRIN            (1 août 2017)[4] :
+Selon GRIN            (1 août 2017) :
 Triumfetta cordifolia A. Rich.
 Triumfetta lappula L.
 Triumfetta pilosa Roth
@@ -738,7 +754,7 @@
 Triumfetta sonderi Ficalho &amp; Hiern
 Triumfetta tomentosa Bojer
 Triumfetta trichocarpa Hochst. ex A. Rich.
-Selon ITIS      (1 août 2017)[5] :
+Selon ITIS      (1 août 2017) :
 Triumfetta bogotensis DC.
 Triumfetta cordifolia A. Rich.
 Triumfetta lappula L.
@@ -747,7 +763,7 @@
 Triumfetta rhomboidea Jacq.
 Triumfetta semitriloba Jacq.
 Triumfetta tomentosa Bojer
-Selon NCBI  (1 août 2017)[6] :
+Selon NCBI  (1 août 2017) :
 Triumfetta annua
 Triumfetta calderonii
 Triumfetta cana
@@ -758,7 +774,7 @@
 variété Triumfetta pilosa var. tomentosa
 Triumfetta rhomboidea
 Triumfetta semitriloba
-Selon The Plant List            (1 août 2017)[7] :
+Selon The Plant List            (1 août 2017) :
 Triumfetta acracantha Hochr.
 Triumfetta actinocarpa S. Moore
 Triumfetta albida (Domin) Halford
@@ -861,7 +877,7 @@
 Triumfetta trifida Sprague &amp; Hutch.
 Triumfetta welwitschii Mast.
 Triumfetta youngii Exell &amp; Mendonça
-Selon Tropicos                                           (1 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Triumfetta abutiloides A. St.-Hil.
 Triumfetta acracantha Hochr.
 Triumfetta actinocarpa S. Moore
